--- a/mySystem/mySystem/xls/tuihuo/表4产品退货接收单.xlsx
+++ b/mySystem/mySystem/xls/tuihuo/表4产品退货接收单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <r>
       <rPr>
@@ -120,6 +120,14 @@
       <t>自动生产“退货产品请验单”。</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -259,12 +267,30 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -275,25 +301,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +586,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -588,93 +596,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/mySystem/mySystem/xls/tuihuo/表4产品退货接收单.xlsx
+++ b/mySystem/mySystem/xls/tuihuo/表4产品退货接收单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <r>
       <rPr>
@@ -104,21 +104,6 @@
   <si>
     <t>外包装/单据
 验收情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自动生产“退货产品请验单”。</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -265,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -278,15 +263,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -583,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -596,22 +572,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -621,8 +597,8 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -632,8 +608,8 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -643,8 +619,8 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -663,42 +639,33 @@
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A11:E11"/>
+  <mergeCells count="6">
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>